--- a/Site Zip Codes3.xlsx
+++ b/Site Zip Codes3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\q713174\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\delos001\Desktop\GitHub\DS_GeneralML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E27D75E5-2B96-42AA-AA6A-B8CA9B15839A}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EDD71524-302C-484B-BD50-58B79376825F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{62A95CEF-E060-4410-AEA8-8DC6CF9EDF0E}"/>
+    <workbookView xWindow="-16320" yWindow="-11430" windowWidth="16440" windowHeight="28440" xr2:uid="{62A95CEF-E060-4410-AEA8-8DC6CF9EDF0E}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,9 +36,6 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
-    <t>Site Reference #</t>
-  </si>
-  <si>
     <t>Site Name</t>
   </si>
   <si>
@@ -214,16 +211,16 @@
   </si>
   <si>
     <t>Zip Code</t>
+  </si>
+  <si>
+    <t>Site</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="00000"/>
-  </numFmts>
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -231,43 +228,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
-  <fills count="4">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF70AD47"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="3">
+  <borders count="1">
     <border>
       <left/>
       <right/>
@@ -275,70 +245,12 @@
       <bottom/>
       <diagonal/>
     </border>
-    <border>
-      <left style="medium">
-        <color rgb="FFA3A3A3"/>
-      </left>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color rgb="FFA3A3A3"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFA3A3A3"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FFA3A3A3"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -656,474 +568,465 @@
   <dimension ref="A1:E27"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.28515625" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="23.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.85546875" customWidth="1"/>
     <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
+        <v>28</v>
+      </c>
+      <c r="E1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>100</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="3" t="s">
+      <c r="C2" t="s">
         <v>29</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="8">
-        <v>100</v>
-      </c>
-      <c r="B2" s="8" t="s">
+      <c r="D2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E2">
+        <v>2114</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>102</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="D2" s="8" t="s">
+      <c r="C3" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="9">
-        <v>2114</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="2">
-        <v>102</v>
-      </c>
-      <c r="B3" s="2" t="s">
+      <c r="D3" t="s">
+        <v>32</v>
+      </c>
+      <c r="E3">
+        <v>94304</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>103</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D4" t="s">
         <v>32</v>
       </c>
-      <c r="D3" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E3" s="6">
-        <v>94304</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="8">
-        <v>103</v>
-      </c>
-      <c r="B4" s="8" t="s">
+      <c r="E4">
+        <v>90048</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>104</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" s="8" t="s">
+      <c r="C5" t="s">
         <v>34</v>
       </c>
-      <c r="D4" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E4" s="10">
-        <v>90048</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2">
-        <v>104</v>
-      </c>
-      <c r="B5" s="2" t="s">
+      <c r="D5" t="s">
+        <v>35</v>
+      </c>
+      <c r="E5">
+        <v>48202</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>105</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="4" t="s">
-        <v>35</v>
-      </c>
-      <c r="D5" s="4" t="s">
+      <c r="C6" t="s">
         <v>36</v>
       </c>
-      <c r="E5" s="6">
-        <v>48202</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="8">
-        <v>105</v>
-      </c>
-      <c r="B6" s="8" t="s">
+      <c r="D6" t="s">
+        <v>37</v>
+      </c>
+      <c r="E6">
+        <v>46227</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>106</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
       </c>
-      <c r="C6" s="8" t="s">
+      <c r="C7" t="s">
+        <v>38</v>
+      </c>
+      <c r="D7" t="s">
+        <v>39</v>
+      </c>
+      <c r="E7">
+        <v>60611</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>107</v>
+      </c>
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" t="s">
         <v>37</v>
       </c>
-      <c r="D6" s="8" t="s">
+      <c r="E8">
+        <v>46237</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>108</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" t="s">
+        <v>37</v>
+      </c>
+      <c r="E9">
+        <v>46320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>41</v>
+      </c>
+      <c r="D10" t="s">
+        <v>42</v>
+      </c>
+      <c r="E10">
+        <v>27599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>110</v>
+      </c>
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" t="s">
         <v>38</v>
       </c>
-      <c r="E6" s="10">
-        <v>46227</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="2">
-        <v>106</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C7" s="4" t="s">
+      <c r="D11" t="s">
         <v>39</v>
       </c>
-      <c r="D7" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="6">
-        <v>60611</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="8">
-        <v>107</v>
-      </c>
-      <c r="B8" s="8" t="s">
-        <v>8</v>
-      </c>
-      <c r="C8" s="8" t="s">
+      <c r="E11">
+        <v>60637</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>111</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" t="s">
+        <v>43</v>
+      </c>
+      <c r="D12" t="s">
+        <v>44</v>
+      </c>
+      <c r="E12">
+        <v>43210</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>112</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" t="s">
+        <v>45</v>
+      </c>
+      <c r="D13" t="s">
+        <v>32</v>
+      </c>
+      <c r="E13">
+        <v>90806</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>113</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14" t="s">
+        <v>46</v>
+      </c>
+      <c r="D14" t="s">
+        <v>44</v>
+      </c>
+      <c r="E14">
+        <v>44195</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>114</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15" t="s">
+        <v>47</v>
+      </c>
+      <c r="D15" t="s">
+        <v>48</v>
+      </c>
+      <c r="E15">
+        <v>75246</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>115</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16" t="s">
+        <v>49</v>
+      </c>
+      <c r="D16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E16">
+        <v>19140</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>116</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" t="s">
+        <v>51</v>
+      </c>
+      <c r="D17" t="s">
+        <v>51</v>
+      </c>
+      <c r="E17">
+        <v>10029</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>117</v>
+      </c>
+      <c r="B18" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18">
+        <v>10025</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>118</v>
+      </c>
+      <c r="B19" t="s">
+        <v>18</v>
+      </c>
+      <c r="C19" t="s">
+        <v>38</v>
+      </c>
+      <c r="D19" t="s">
+        <v>39</v>
+      </c>
+      <c r="E19">
+        <v>60612</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>119</v>
+      </c>
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+      <c r="C20" t="s">
+        <v>52</v>
+      </c>
+      <c r="D20" t="s">
+        <v>32</v>
+      </c>
+      <c r="E20">
+        <v>92123</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>120</v>
+      </c>
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+      <c r="C21" t="s">
+        <v>52</v>
+      </c>
+      <c r="D21" t="s">
+        <v>32</v>
+      </c>
+      <c r="E21">
+        <v>92120</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>121</v>
+      </c>
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+      <c r="C22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D22" t="s">
+        <v>50</v>
+      </c>
+      <c r="E22">
+        <v>19107</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>122</v>
+      </c>
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+      <c r="C23" t="s">
+        <v>53</v>
+      </c>
+      <c r="D23" t="s">
+        <v>54</v>
+      </c>
+      <c r="E23">
+        <v>20007</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>123</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24">
+        <v>22003</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C25" t="s">
+        <v>55</v>
+      </c>
+      <c r="D25" t="s">
         <v>37</v>
       </c>
-      <c r="D8" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="E8" s="10">
-        <v>46237</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="2">
-        <v>108</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="C9" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E9" s="6">
-        <v>46320</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="2">
-        <v>109</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="C10" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="E10" s="6">
-        <v>27599</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="2">
-        <v>110</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D11" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="6">
-        <v>60637</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="2">
-        <v>111</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D12" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E12" s="6">
-        <v>43210</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="8">
-        <v>112</v>
-      </c>
-      <c r="B13" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C13" s="8" t="s">
-        <v>46</v>
-      </c>
-      <c r="D13" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E13" s="10">
-        <v>90806</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="2">
-        <v>113</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>14</v>
-      </c>
-      <c r="C14" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D14" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="E14" s="7">
-        <v>44195</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="2">
-        <v>114</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D15" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="E15" s="7">
-        <v>75246</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="2">
-        <v>115</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D16" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E16" s="7">
-        <v>19140</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="2">
-        <v>116</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>17</v>
-      </c>
-      <c r="C17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D17" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E17" s="7">
-        <v>10029</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="2">
-        <v>117</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="D18" s="4" t="s">
-        <v>52</v>
-      </c>
-      <c r="E18" s="7">
-        <v>10025</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="2">
-        <v>118</v>
-      </c>
-      <c r="B19" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="C19" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="D19" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="E19" s="7">
-        <v>60612</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="2">
-        <v>119</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D20" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E20" s="7">
-        <v>92123</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="2">
-        <v>120</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C21" s="4" t="s">
-        <v>53</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="E21" s="7">
-        <v>92120</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="2">
-        <v>121</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="C22" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D22" s="4" t="s">
-        <v>51</v>
-      </c>
-      <c r="E22" s="7">
-        <v>19107</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="2">
-        <v>122</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="C23" s="4" t="s">
-        <v>54</v>
-      </c>
-      <c r="D23" s="4" t="s">
-        <v>55</v>
-      </c>
-      <c r="E23" s="7">
-        <v>20007</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" ht="60.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="2">
-        <v>123</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>57</v>
-      </c>
-      <c r="D24" s="4" t="s">
-        <v>58</v>
-      </c>
-      <c r="E24" s="7">
-        <v>22003</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="2"/>
-      <c r="B25" s="2" t="s">
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B26" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="4" t="s">
-        <v>56</v>
-      </c>
-      <c r="D25" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E25" s="7"/>
-    </row>
-    <row r="26" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="2"/>
-      <c r="B26" s="2" t="s">
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26">
+        <v>46256</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B27" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="4" t="s">
+      <c r="C27" t="s">
+        <v>36</v>
+      </c>
+      <c r="D27" t="s">
         <v>37</v>
       </c>
-      <c r="D26" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E26" s="7">
-        <v>46256</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="2"/>
-      <c r="B27" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>37</v>
-      </c>
-      <c r="D27" s="4" t="s">
-        <v>38</v>
-      </c>
-      <c r="E27" s="7">
+      <c r="E27">
         <v>46219</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D1" xr:uid="{E2C730BC-2ECF-4724-B6BE-B2B86F2BA434}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D27">
-      <sortCondition ref="A1"/>
-    </sortState>
-  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
